--- a/Problems/Mathematics.xlsx
+++ b/Problems/Mathematics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming_Codes\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78375361-B27B-4A9C-A9B7-1EFB92192CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB18DFA-DF07-4264-B37B-7B39EF874B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB7E3D0B-348A-407A-8B28-C440CD723D0B}"/>
   </bookViews>
@@ -620,9 +620,6 @@
     <t>https://codeforces.com/contest/1497/submission/120998531</t>
   </si>
   <si>
-    <t xml:space="preserve">You are given a sequence. You have to partition the sequence into some segments such that the product two numbers cannot be a perfect square in a segment . You have to count the number of minimum segements you can split the sequence. </t>
-  </si>
-  <si>
     <t>01.07.21</t>
   </si>
   <si>
@@ -687,6 +684,9 @@
   </si>
   <si>
     <t>C. Strange Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given a sequence. You have to partition the sequence into some segments such that the product of any two numbers cannot be a perfect square in a segment . You have to count the number of minimum segements you can split the sequence. </t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9898A-9ECF-4948-BCC0-B50754857C19}">
   <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:E91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2098,13 +2098,13 @@
         <v>108</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>110</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>109</v>
@@ -2197,23 +2197,23 @@
         <v>10</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="F83" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6640,7 +6640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF72125D-2FF7-41ED-AA89-5DBB92C5E59D}">
   <dimension ref="A1:H865"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="F29" sqref="F29:F37"/>
     </sheetView>
   </sheetViews>
